--- a/inputdata.xlsx
+++ b/inputdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coconut/Project/e2i-automation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dodys\Projects\e2i-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1DDBA3-E49B-5B4B-9182-13EFAF3AA30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E008DCB0-9C0D-40AC-9A71-2841A476B669}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14220" activeTab="1" xr2:uid="{CE2E7529-4D98-214D-AB4B-F64E5630D038}"/>
+    <workbookView xWindow="11475" yWindow="2490" windowWidth="38385" windowHeight="21585" activeTab="1" xr2:uid="{CE2E7529-4D98-214D-AB4B-F64E5630D038}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
   <si>
     <t>Name (as per NRIC)</t>
   </si>
@@ -393,12 +391,15 @@
   <si>
     <t>B9</t>
   </si>
+  <si>
+    <t>Text fieldasdasd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -727,12 +728,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -750,33 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,9 +1099,9 @@
       <selection activeCell="B1" sqref="B1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="31" thickBot="1">
+    <row r="1" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" thickBot="1">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="46" thickBot="1">
+    <row r="3" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31" thickBot="1">
+    <row r="4" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="61" thickBot="1">
+    <row r="5" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1155,7 +1156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="46" thickBot="1">
+    <row r="6" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31" thickBot="1">
+    <row r="7" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" thickBot="1">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31" thickBot="1">
+    <row r="9" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1199,147 +1200,147 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="213">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:3" ht="167.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="25"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="21"/>
+      <c r="C11" s="34"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="25"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="21"/>
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" spans="1:3" ht="199">
-      <c r="A14" s="21"/>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:3" ht="167.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="21"/>
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="25"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="21"/>
+      <c r="C15" s="34"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="25"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="21"/>
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="25"/>
-    </row>
-    <row r="18" spans="1:3" ht="60" thickBot="1">
-      <c r="A18" s="23"/>
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:3" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
       <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="26"/>
-    </row>
-    <row r="19" spans="1:3" ht="84">
-      <c r="A19" s="22"/>
+      <c r="C18" s="35"/>
+    </row>
+    <row r="19" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
       <c r="B19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="24"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="21"/>
+      <c r="C19" s="33"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="25"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="21"/>
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="25"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="21"/>
+      <c r="C21" s="34"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="25"/>
-    </row>
-    <row r="23" spans="1:3" ht="84">
-      <c r="A23" s="21"/>
+      <c r="C22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
       <c r="B23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="25"/>
-    </row>
-    <row r="24" spans="1:3" ht="17" thickBot="1">
-      <c r="A24" s="23"/>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="26"/>
-    </row>
-    <row r="25" spans="1:3" ht="17" thickBot="1">
-      <c r="A25" s="27" t="s">
+      <c r="C24" s="35"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:3" ht="45">
+    <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60">
+    <row r="27" spans="1:3" ht="57" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="18"/>
     </row>
-    <row r="30" spans="1:3" ht="17" thickBot="1">
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="20"/>
     </row>
-    <row r="31" spans="1:3" ht="28" customHeight="1" thickBot="1">
-      <c r="A31" s="29" t="s">
+    <row r="31" spans="1:3" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-    </row>
-    <row r="32" spans="1:3" ht="46" thickBot="1">
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" thickBot="1">
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="46" thickBot="1">
+    <row r="34" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
@@ -1372,97 +1373,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="126">
-      <c r="A35" s="32" t="s">
+    <row r="35" spans="1:3" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="126">
-      <c r="A36" s="32" t="s">
+    <row r="36" spans="1:3" ht="102" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="126">
-      <c r="A37" s="32" t="s">
+    <row r="37" spans="1:3" ht="102" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="101" customHeight="1">
-      <c r="A38" s="35" t="s">
+    <row r="38" spans="1:3" ht="101.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
-    </row>
-    <row r="40" spans="1:3" ht="112">
-      <c r="A40" s="32" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+    </row>
+    <row r="40" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="126">
-      <c r="A41" s="32" t="s">
+    <row r="41" spans="1:3" ht="102" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="98">
-      <c r="A42" s="32" t="s">
+    <row r="42" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="88" customHeight="1">
-      <c r="A43" s="35" t="s">
+    <row r="43" spans="1:3" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="37"/>
-    </row>
-    <row r="45" spans="1:3" ht="322" customHeight="1">
-      <c r="A45" s="35" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="29"/>
+    </row>
+    <row r="45" spans="1:3" ht="321.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="37"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A10:A18"/>
@@ -1471,6 +1467,11 @@
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1481,16 +1482,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2776C0-5828-6649-8D96-5DA2D638AC0C}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31" thickBot="1">
+    <row r="1" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" thickBot="1">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1512,7 +1513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="46" thickBot="1">
+    <row r="3" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31" thickBot="1">
+    <row r="4" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="61" thickBot="1">
+    <row r="5" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="46" thickBot="1">
+    <row r="6" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31" thickBot="1">
+    <row r="7" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1567,7 +1568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" thickBot="1">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31" thickBot="1">
+    <row r="9" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1589,147 +1590,147 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="73">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:3" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="25"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="21"/>
+      <c r="C11" s="34"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="25"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="21"/>
+      <c r="C12" s="34"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" spans="1:3" ht="199">
-      <c r="A14" s="21"/>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:3" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="21"/>
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="25"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="21"/>
+      <c r="C15" s="34"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="25"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="21"/>
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="25"/>
-    </row>
-    <row r="18" spans="1:3" ht="60" thickBot="1">
-      <c r="A18" s="23"/>
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
       <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="26"/>
-    </row>
-    <row r="19" spans="1:3" ht="84">
-      <c r="A19" s="22"/>
+      <c r="C18" s="35"/>
+    </row>
+    <row r="19" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
       <c r="B19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="24"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="21"/>
+      <c r="C19" s="33"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="25"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="21"/>
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="25"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="21"/>
+      <c r="C21" s="34"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="25"/>
-    </row>
-    <row r="23" spans="1:3" ht="84">
-      <c r="A23" s="21"/>
+      <c r="C22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
       <c r="B23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="25"/>
-    </row>
-    <row r="24" spans="1:3" ht="17" thickBot="1">
-      <c r="A24" s="23"/>
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="26"/>
-    </row>
-    <row r="25" spans="1:3" ht="17" thickBot="1">
-      <c r="A25" s="27" t="s">
+      <c r="C24" s="35"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:3" ht="45">
+    <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60">
+    <row r="27" spans="1:3" ht="57" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="18"/>
     </row>
-    <row r="30" spans="1:3" ht="17" thickBot="1">
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="20"/>
     </row>
-    <row r="31" spans="1:3" ht="28" customHeight="1" thickBot="1">
-      <c r="A31" s="29" t="s">
+    <row r="31" spans="1:3" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-    </row>
-    <row r="32" spans="1:3" ht="46" thickBot="1">
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" thickBot="1">
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
@@ -1751,108 +1752,103 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="46" thickBot="1">
+    <row r="34" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="126">
-      <c r="A35" s="32" t="s">
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="126">
-      <c r="A36" s="32" t="s">
+    <row r="36" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="126">
-      <c r="A37" s="32" t="s">
+    <row r="37" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="101" customHeight="1">
-      <c r="A38" s="35" t="s">
+    <row r="38" spans="1:3" ht="101.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
-    </row>
-    <row r="40" spans="1:3" ht="112">
-      <c r="A40" s="32" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+    </row>
+    <row r="40" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="126">
-      <c r="A41" s="32" t="s">
+    <row r="41" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="98">
-      <c r="A42" s="32" t="s">
+    <row r="42" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="88" customHeight="1">
-      <c r="A43" s="35" t="s">
+    <row r="43" spans="1:3" ht="87.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="37"/>
-    </row>
-    <row r="45" spans="1:3" ht="322" customHeight="1">
-      <c r="A45" s="35" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="29"/>
+    </row>
+    <row r="45" spans="1:3" ht="321.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="37"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A10:A18"/>
@@ -1861,6 +1857,11 @@
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
